--- a/practica/Tema7/practica3/practica3/Libro_1.xlsx
+++ b/practica/Tema7/practica3/practica3/Libro_1.xlsx
@@ -5,20 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergioredondo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergioredondo/Desktop/UTAD/U-TAD_Alumno/algoritmos/practica/Tema7/practica3/practica3/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22900" windowHeight="12860" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
-    <sheet name="1500" sheetId="1" r:id="rId1"/>
-    <sheet name="1300" sheetId="2" r:id="rId2"/>
-    <sheet name="1100" sheetId="3" r:id="rId3"/>
-    <sheet name="900" sheetId="4" r:id="rId4"/>
-    <sheet name="700" sheetId="6" r:id="rId5"/>
+    <sheet name="50000" sheetId="1" r:id="rId1"/>
+    <sheet name="40000" sheetId="2" r:id="rId2"/>
+    <sheet name="30000" sheetId="3" r:id="rId3"/>
+    <sheet name="20000" sheetId="4" r:id="rId4"/>
+    <sheet name="10000" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="9">
   <si>
     <t>Mejor caso</t>
   </si>
@@ -64,17 +64,29 @@
   <si>
     <t>Caso general</t>
   </si>
+  <si>
+    <t>Range Sort</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -98,8 +110,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -156,12 +172,13 @@
             </a:r>
             <a:r>
               <a:rPr lang="es-ES" baseline="0"/>
-              <a:t> 1.500 datos</a:t>
+              <a:t> 50000 datos</a:t>
             </a:r>
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -203,7 +220,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1500'!$A$2</c:f>
+              <c:f>'50000'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -224,7 +241,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1500'!$B$1:$D$1</c:f>
+              <c:f>'50000'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -241,18 +258,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1500'!$B$2:$D$2</c:f>
+              <c:f>'50000'!$B$2:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.095</c:v>
+                  <c:v>14.039</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.068</c:v>
+                  <c:v>14.126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26</c:v>
+                  <c:v>14.263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -268,7 +285,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1500'!$A$3</c:f>
+              <c:f>'50000'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -289,7 +306,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1500'!$B$1:$D$1</c:f>
+              <c:f>'50000'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -306,18 +323,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1500'!$B$3:$D$3</c:f>
+              <c:f>'50000'!$B$3:$D$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.007</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>9.645</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.259</c:v>
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>19.079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -333,7 +350,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1500'!$A$4</c:f>
+              <c:f>'50000'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -354,7 +371,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1500'!$B$1:$D$1</c:f>
+              <c:f>'50000'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -371,18 +388,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1500'!$B$4:$D$4</c:f>
+              <c:f>'50000'!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.229</c:v>
+                  <c:v>43.495</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.137</c:v>
+                  <c:v>27.185</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.403</c:v>
+                  <c:v>48.941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -398,7 +415,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1500'!$A$5</c:f>
+              <c:f>'50000'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -419,7 +436,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1500'!$B$1:$D$1</c:f>
+              <c:f>'50000'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -436,18 +453,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1500'!$B$5:$D$5</c:f>
+              <c:f>'50000'!$B$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.006</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.005</c:v>
+                  <c:v>0.051</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.184</c:v>
+                  <c:v>0.055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -463,7 +480,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1500'!$A$6</c:f>
+              <c:f>'50000'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -484,7 +501,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1500'!$B$1:$D$1</c:f>
+              <c:f>'50000'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -501,18 +518,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1500'!$B$6:$D$6</c:f>
+              <c:f>'50000'!$B$6:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.038</c:v>
+                  <c:v>0.309</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.121</c:v>
+                  <c:v>29.31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.186</c:v>
+                  <c:v>5.492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -522,6 +539,66 @@
               <c16:uniqueId val="{00000004-2854-4BEB-8280-D3ED5D9BAEDD}"/>
             </c:ext>
           </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'50000'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Range Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'50000'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Caso general</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mejor caso</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Peor caso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'50000'!$B$7:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -533,11 +610,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="311657792"/>
-        <c:axId val="311662432"/>
+        <c:axId val="387916288"/>
+        <c:axId val="279147216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="311657792"/>
+        <c:axId val="387916288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -580,7 +657,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311662432"/>
+        <c:crossAx val="279147216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -588,7 +665,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="311662432"/>
+        <c:axId val="279147216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -639,7 +716,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311657792"/>
+        <c:crossAx val="387916288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -653,6 +730,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -758,12 +836,13 @@
             </a:r>
             <a:r>
               <a:rPr lang="es-ES" baseline="0"/>
-              <a:t> 1.300 datos</a:t>
+              <a:t> 40000 datos</a:t>
             </a:r>
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -805,7 +884,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1300'!$A$2</c:f>
+              <c:f>'40000'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -826,7 +905,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1300'!$B$1:$D$1</c:f>
+              <c:f>'40000'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -843,18 +922,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1300'!$B$2:$D$2</c:f>
+              <c:f>'40000'!$B$2:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.052</c:v>
+                  <c:v>8.573</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.052</c:v>
+                  <c:v>8.544</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.216</c:v>
+                  <c:v>8.663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -870,7 +949,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1300'!$A$3</c:f>
+              <c:f>'40000'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -891,7 +970,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1300'!$B$1:$D$1</c:f>
+              <c:f>'40000'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -908,18 +987,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1300'!$B$3:$D$3</c:f>
+              <c:f>'40000'!$B$3:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.054</c:v>
+                  <c:v>5.885</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21</c:v>
+                  <c:v>11.636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -935,7 +1014,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1300'!$A$4</c:f>
+              <c:f>'40000'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -956,7 +1035,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1300'!$B$1:$D$1</c:f>
+              <c:f>'40000'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -973,18 +1052,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1300'!$B$4:$D$4</c:f>
+              <c:f>'40000'!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.173</c:v>
+                  <c:v>26.798</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.105</c:v>
+                  <c:v>17.258</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.344</c:v>
+                  <c:v>31.143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1000,7 +1079,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1300'!$A$5</c:f>
+              <c:f>'40000'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1021,7 +1100,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1300'!$B$1:$D$1</c:f>
+              <c:f>'40000'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1038,18 +1117,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1300'!$B$5:$D$5</c:f>
+              <c:f>'40000'!$B$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.005</c:v>
+                  <c:v>0.048</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.005</c:v>
+                  <c:v>0.041</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.179</c:v>
+                  <c:v>0.042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1065,7 +1144,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1300'!$A$6</c:f>
+              <c:f>'40000'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1086,7 +1165,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1300'!$B$1:$D$1</c:f>
+              <c:f>'40000'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1103,18 +1182,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1300'!$B$6:$D$6</c:f>
+              <c:f>'40000'!$B$6:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.026</c:v>
+                  <c:v>0.202</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.094</c:v>
+                  <c:v>18.821</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.188</c:v>
+                  <c:v>5.799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1124,6 +1203,66 @@
               <c16:uniqueId val="{00000004-4843-4390-A322-769EB72B4DEE}"/>
             </c:ext>
           </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'40000'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Range Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'40000'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Caso general</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mejor caso</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Peor caso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'40000'!$B$7:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1135,11 +1274,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="306801232"/>
-        <c:axId val="306805872"/>
+        <c:axId val="422539984"/>
+        <c:axId val="423949600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="306801232"/>
+        <c:axId val="422539984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1182,7 +1321,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306805872"/>
+        <c:crossAx val="423949600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1190,7 +1329,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="306805872"/>
+        <c:axId val="423949600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,7 +1380,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306801232"/>
+        <c:crossAx val="422539984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1255,6 +1394,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1360,12 +1500,13 @@
             </a:r>
             <a:r>
               <a:rPr lang="es-ES" baseline="0"/>
-              <a:t> 1.100 datos</a:t>
+              <a:t> 30000 datos</a:t>
             </a:r>
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1407,7 +1548,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1100'!$A$2</c:f>
+              <c:f>'30000'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1428,7 +1569,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1100'!$B$1:$D$1</c:f>
+              <c:f>'30000'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1445,18 +1586,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1100'!$B$2:$D$2</c:f>
+              <c:f>'30000'!$B$2:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.066</c:v>
+                  <c:v>4.826</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.037</c:v>
+                  <c:v>4.854</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.175</c:v>
+                  <c:v>4.854</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1472,7 +1613,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1100'!$A$3</c:f>
+              <c:f>'30000'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1493,7 +1634,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1100'!$B$1:$D$1</c:f>
+              <c:f>'30000'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1510,18 +1651,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1100'!$B$3:$D$3</c:f>
+              <c:f>'30000'!$B$3:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.039</c:v>
+                  <c:v>3.266</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.179</c:v>
+                  <c:v>6.568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1537,7 +1678,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1100'!$A$4</c:f>
+              <c:f>'30000'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1558,7 +1699,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1100'!$B$1:$D$1</c:f>
+              <c:f>'30000'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1575,18 +1716,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1100'!$B$4:$D$4</c:f>
+              <c:f>'30000'!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.125</c:v>
+                  <c:v>14.938</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.075</c:v>
+                  <c:v>9.714</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.263</c:v>
+                  <c:v>17.497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1602,7 +1743,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1100'!$A$5</c:f>
+              <c:f>'30000'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1623,7 +1764,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1100'!$B$1:$D$1</c:f>
+              <c:f>'30000'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1640,18 +1781,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1100'!$B$5:$D$5</c:f>
+              <c:f>'30000'!$B$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.004</c:v>
+                  <c:v>0.035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.004</c:v>
+                  <c:v>0.029</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.144</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1667,7 +1808,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1100'!$A$6</c:f>
+              <c:f>'30000'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1688,7 +1829,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'1100'!$B$1:$D$1</c:f>
+              <c:f>'30000'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1705,18 +1846,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1100'!$B$6:$D$6</c:f>
+              <c:f>'30000'!$B$6:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.021</c:v>
+                  <c:v>0.113</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.067</c:v>
+                  <c:v>10.515</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.167</c:v>
+                  <c:v>2.178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1726,6 +1867,66 @@
               <c16:uniqueId val="{00000004-999E-4E46-B420-B7FFCCA28277}"/>
             </c:ext>
           </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'30000'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Range Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'30000'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Caso general</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mejor caso</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Peor caso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'30000'!$B$7:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1737,11 +1938,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="306925120"/>
-        <c:axId val="306929760"/>
+        <c:axId val="427377728"/>
+        <c:axId val="427382336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="306925120"/>
+        <c:axId val="427377728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1784,7 +1985,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306929760"/>
+        <c:crossAx val="427382336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1792,7 +1993,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="306929760"/>
+        <c:axId val="427382336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1843,7 +2044,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306925120"/>
+        <c:crossAx val="427377728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1857,6 +2058,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1962,12 +2164,13 @@
             </a:r>
             <a:r>
               <a:rPr lang="es-ES" baseline="0"/>
-              <a:t> 900 datos</a:t>
+              <a:t> 2000 datos</a:t>
             </a:r>
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2009,7 +2212,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'900'!$A$2</c:f>
+              <c:f>'20000'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2030,7 +2233,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'900'!$B$1:$D$1</c:f>
+              <c:f>'20000'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2047,18 +2250,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'900'!$B$2:$D$2</c:f>
+              <c:f>'20000'!$B$2:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.056</c:v>
+                  <c:v>2.147</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.043</c:v>
+                  <c:v>2.145</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.147</c:v>
+                  <c:v>2.207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2074,7 +2277,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'900'!$A$3</c:f>
+              <c:f>'20000'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2095,7 +2298,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'900'!$B$1:$D$1</c:f>
+              <c:f>'20000'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2112,18 +2315,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'900'!$B$3:$D$3</c:f>
+              <c:f>'20000'!$B$3:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.026</c:v>
+                  <c:v>1.48</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.144</c:v>
+                  <c:v>2.911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2139,7 +2342,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'900'!$A$4</c:f>
+              <c:f>'20000'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2160,7 +2363,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'900'!$B$1:$D$1</c:f>
+              <c:f>'20000'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2177,18 +2380,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'900'!$B$4:$D$4</c:f>
+              <c:f>'20000'!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.084</c:v>
+                  <c:v>6.689</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.051</c:v>
+                  <c:v>4.349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.198</c:v>
+                  <c:v>7.804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2204,7 +2407,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'900'!$A$5</c:f>
+              <c:f>'20000'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2225,7 +2428,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'900'!$B$1:$D$1</c:f>
+              <c:f>'20000'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2242,18 +2445,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'900'!$B$5:$D$5</c:f>
+              <c:f>'20000'!$B$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.004</c:v>
+                  <c:v>0.023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.003</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.117</c:v>
+                  <c:v>0.019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2269,7 +2472,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'900'!$A$6</c:f>
+              <c:f>'20000'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2290,7 +2493,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'900'!$B$1:$D$1</c:f>
+              <c:f>'20000'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2307,18 +2510,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'900'!$B$6:$D$6</c:f>
+              <c:f>'20000'!$B$6:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.013</c:v>
+                  <c:v>0.051</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.045</c:v>
+                  <c:v>4.708</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.127</c:v>
+                  <c:v>1.177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2328,6 +2531,66 @@
               <c16:uniqueId val="{00000004-39FE-4A90-9BA2-33A8230C352D}"/>
             </c:ext>
           </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20000'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Range Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'20000'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Caso general</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mejor caso</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Peor caso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'20000'!$B$7:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2339,11 +2602,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="307017808"/>
-        <c:axId val="307022448"/>
+        <c:axId val="427508288"/>
+        <c:axId val="427512896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="307017808"/>
+        <c:axId val="427508288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2386,7 +2649,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307022448"/>
+        <c:crossAx val="427512896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2394,7 +2657,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="307022448"/>
+        <c:axId val="427512896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2445,7 +2708,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307017808"/>
+        <c:crossAx val="427508288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2459,6 +2722,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2564,7 +2828,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="es-ES" baseline="0"/>
-              <a:t> 700 datos</a:t>
+              <a:t> 1000 datos</a:t>
             </a:r>
             <a:endParaRPr lang="es-ES"/>
           </a:p>
@@ -2612,7 +2876,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'700'!$A$2</c:f>
+              <c:f>'10000'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2633,7 +2897,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'700'!$B$1:$D$1</c:f>
+              <c:f>'10000'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2650,18 +2914,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'700'!$B$2:$D$2</c:f>
+              <c:f>'10000'!$B$2:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.033</c:v>
+                  <c:v>0.534</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.032</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.117</c:v>
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>0.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2677,7 +2941,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'700'!$A$3</c:f>
+              <c:f>'10000'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2698,7 +2962,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'700'!$B$1:$D$1</c:f>
+              <c:f>'10000'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2715,18 +2979,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'700'!$B$3:$D$3</c:f>
+              <c:f>'10000'!$B$3:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.021</c:v>
+                  <c:v>0.365</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.114</c:v>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>0.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2742,7 +3006,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'700'!$A$4</c:f>
+              <c:f>'10000'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2763,7 +3027,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'700'!$B$1:$D$1</c:f>
+              <c:f>'10000'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2780,18 +3044,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'700'!$B$4:$D$4</c:f>
+              <c:f>'10000'!$B$4:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.059</c:v>
+                  <c:v>1.677</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.03</c:v>
+                  <c:v>1.084</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.137</c:v>
+                  <c:v>1.957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2807,7 +3071,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'700'!$A$5</c:f>
+              <c:f>'10000'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2828,7 +3092,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'700'!$B$1:$D$1</c:f>
+              <c:f>'10000'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2845,18 +3109,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'700'!$B$5:$D$5</c:f>
+              <c:f>'10000'!$B$5:$D$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.003</c:v>
+                  <c:v>0.011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.09</c:v>
+                  <c:v>0.009</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2872,7 +3136,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'700'!$A$6</c:f>
+              <c:f>'10000'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2893,7 +3157,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'700'!$B$1:$D$1</c:f>
+              <c:f>'10000'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2910,18 +3174,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'700'!$B$6:$D$6</c:f>
+              <c:f>'10000'!$B$6:$D$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.000</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.014</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.026</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.094</c:v>
+                  <c:v>1.196</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2931,6 +3195,66 @@
               <c16:uniqueId val="{00000004-C71D-485E-96F4-86B5283037FD}"/>
             </c:ext>
           </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10000'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Range Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'10000'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Caso general</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mejor caso</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Peor caso</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10000'!$B$7:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2942,11 +3266,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="307126176"/>
-        <c:axId val="307130816"/>
+        <c:axId val="427620768"/>
+        <c:axId val="427625376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="307126176"/>
+        <c:axId val="427620768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2989,7 +3313,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307130816"/>
+        <c:crossAx val="427625376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2997,7 +3321,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="307130816"/>
+        <c:axId val="427625376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3048,7 +3372,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307126176"/>
+        <c:crossAx val="427620768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6019,15 +6343,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
+      <xdr:colOff>287020</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>55880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:colOff>104140</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>55880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6354,10 +6678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6378,13 +6702,13 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>9.5000000000000001E-2</v>
+        <v>14.039</v>
       </c>
       <c r="C2">
-        <v>6.8000000000000005E-2</v>
+        <v>14.125999999999999</v>
       </c>
       <c r="D2">
-        <v>0.26</v>
+        <v>14.263</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6392,13 +6716,13 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+        <v>9.6449999999999996</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1E-3</v>
       </c>
       <c r="D3">
-        <v>0.25900000000000001</v>
+        <v>19.079000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6406,13 +6730,13 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.22900000000000001</v>
+        <v>43.494999999999997</v>
       </c>
       <c r="C4">
-        <v>0.13700000000000001</v>
+        <v>27.184999999999999</v>
       </c>
       <c r="D4">
-        <v>0.40300000000000002</v>
+        <v>48.941000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6420,13 +6744,13 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>6.0000000000000001E-3</v>
+        <v>0.06</v>
       </c>
       <c r="C5">
-        <v>5.0000000000000001E-3</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="D5">
-        <v>0.184</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -6434,13 +6758,27 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>3.7999999999999999E-2</v>
+        <v>0.309</v>
       </c>
       <c r="C6">
-        <v>0.121</v>
+        <v>29.31</v>
       </c>
       <c r="D6">
-        <v>0.186</v>
+        <v>5.492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1E-3</v>
+      </c>
+      <c r="C7">
+        <v>1E-3</v>
+      </c>
+      <c r="D7">
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>
@@ -6451,10 +6789,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6475,13 +6813,13 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>5.1999999999999998E-2</v>
+        <v>8.5730000000000004</v>
       </c>
       <c r="C2">
-        <v>5.1999999999999998E-2</v>
+        <v>8.5440000000000005</v>
       </c>
       <c r="D2">
-        <v>0.216</v>
+        <v>8.6630000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6489,13 +6827,13 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>5.3999999999999999E-2</v>
+        <v>5.8849999999999998</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D3">
-        <v>0.21</v>
+        <v>11.635999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6503,13 +6841,13 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.17299999999999999</v>
+        <v>26.797999999999998</v>
       </c>
       <c r="C4">
-        <v>0.105</v>
+        <v>17.257999999999999</v>
       </c>
       <c r="D4">
-        <v>0.34399999999999997</v>
+        <v>31.143000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6517,13 +6855,13 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>5.0000000000000001E-3</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="C5">
-        <v>5.0000000000000001E-3</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="D5">
-        <v>0.17899999999999999</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -6531,13 +6869,27 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>2.5999999999999999E-2</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="C6">
-        <v>9.4E-2</v>
+        <v>18.821000000000002</v>
       </c>
       <c r="D6">
-        <v>0.188</v>
+        <v>5.7990000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1E-3</v>
+      </c>
+      <c r="C7">
+        <v>1E-3</v>
+      </c>
+      <c r="D7">
+        <v>1E-3</v>
       </c>
     </row>
   </sheetData>
@@ -6548,10 +6900,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6572,13 +6924,13 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>6.6000000000000003E-2</v>
+        <v>4.8259999999999996</v>
       </c>
       <c r="C2">
-        <v>3.6999999999999998E-2</v>
+        <v>4.8540000000000001</v>
       </c>
       <c r="D2">
-        <v>0.17499999999999999</v>
+        <v>4.8540000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6586,13 +6938,13 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>3.9E-2</v>
+        <v>3.266</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="D3">
-        <v>0.17899999999999999</v>
+        <v>6.5679999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6600,13 +6952,13 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.125</v>
+        <v>14.938000000000001</v>
       </c>
       <c r="C4">
-        <v>7.4999999999999997E-2</v>
+        <v>9.7140000000000004</v>
       </c>
       <c r="D4">
-        <v>0.26300000000000001</v>
+        <v>17.497</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6614,13 +6966,13 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>4.0000000000000001E-3</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="C5">
-        <v>4.0000000000000001E-3</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="D5">
-        <v>0.14399999999999999</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -6628,13 +6980,27 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>2.1000000000000001E-2</v>
+        <v>0.113</v>
       </c>
       <c r="C6">
-        <v>6.7000000000000004E-2</v>
+        <v>10.515000000000001</v>
       </c>
       <c r="D6">
-        <v>0.16700000000000001</v>
+        <v>2.1779999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6645,10 +7011,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6669,13 +7035,13 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>5.6000000000000001E-2</v>
+        <v>2.1469999999999998</v>
       </c>
       <c r="C2">
-        <v>4.2999999999999997E-2</v>
+        <v>2.145</v>
       </c>
       <c r="D2">
-        <v>0.14699999999999999</v>
+        <v>2.2069999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6683,13 +7049,13 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2.5999999999999999E-2</v>
+        <v>1.48</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.14399999999999999</v>
+        <v>2.911</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6697,13 +7063,13 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>8.4000000000000005E-2</v>
+        <v>6.6890000000000001</v>
       </c>
       <c r="C4">
-        <v>5.0999999999999997E-2</v>
+        <v>4.3490000000000002</v>
       </c>
       <c r="D4">
-        <v>0.19800000000000001</v>
+        <v>7.8040000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -6711,13 +7077,13 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>4.0000000000000001E-3</v>
+        <v>2.3E-2</v>
       </c>
       <c r="C5">
-        <v>3.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D5">
-        <v>0.11700000000000001</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -6725,13 +7091,27 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1.2999999999999999E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="C6">
-        <v>4.4999999999999998E-2</v>
+        <v>4.7080000000000002</v>
       </c>
       <c r="D6">
-        <v>0.127</v>
+        <v>1.177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6742,10 +7122,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6761,60 +7141,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="C2">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="D2">
-        <v>0.11700000000000001</v>
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.54</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>2.1000000000000001E-2</v>
+      <c r="B3" s="1">
+        <v>0.36499999999999999</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0.114</v>
+      <c r="D3" s="3">
+        <v>0.73</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="C4">
-        <v>0.03</v>
-      </c>
-      <c r="D4">
-        <v>0.13700000000000001</v>
+      <c r="B4" s="2">
+        <v>1.677</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.9570000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="C5">
-        <v>2E-3</v>
-      </c>
-      <c r="D5">
-        <v>0.09</v>
+      <c r="B5" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -6822,13 +7202,27 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.01</v>
-      </c>
-      <c r="C6">
-        <v>2.5999999999999999E-2</v>
+        <v>1.4E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.196</v>
       </c>
       <c r="D6">
-        <v>9.4E-2</v>
+        <v>0.30399999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
